--- a/xlsx/lipdb170221.xlsx
+++ b/xlsx/lipdb170221.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="1140">
   <si>
     <t>num</t>
   </si>
@@ -2944,15 +2944,6 @@
     <t>럭스립컬러 럭스립 럭스립칼라  유어마제스티 마재스티</t>
   </si>
   <si>
-    <t>L589</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 임페리얼 레드</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  임페리얼레드</t>
-  </si>
-  <si>
     <t>L590</t>
   </si>
   <si>
@@ -2962,214 +2953,196 @@
     <t>럭스립컬러 럭스립 럭스립칼라  선 셋 선셋오렌지</t>
   </si>
   <si>
-    <t>L591</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 플레임</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  플래임</t>
-  </si>
-  <si>
-    <t>L592</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 바비</t>
+    <t>L593</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 페일 코랄</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  페일코랄</t>
+  </si>
+  <si>
+    <t>L594</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 레트로 코랄</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  레트로코랄</t>
+  </si>
+  <si>
+    <t>L604</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 아토믹 오렌지</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  아토믹오렌지</t>
+  </si>
+  <si>
+    <t>L605</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 핑크 구아바</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  핑크구아바</t>
+  </si>
+  <si>
+    <t>L606</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 라즈베리 핑크</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  라즈베리핑크</t>
+  </si>
+  <si>
+    <t>L607</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 브라이트 피어니</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  브라이트피어니 피오니</t>
+  </si>
+  <si>
+    <t>L609</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 브로케이드</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  브로케이드 브로캐이드</t>
+  </si>
+  <si>
+    <t>L610</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 핑크 클라우드</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  핑크클라우드</t>
+  </si>
+  <si>
+    <t>L611</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 베이비 피치</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  베이비피치</t>
+  </si>
+  <si>
+    <t>L612</t>
+  </si>
+  <si>
+    <t>럭스 립 칼라 핫 로즈</t>
+  </si>
+  <si>
+    <t>럭스립컬러 럭스립 럭스립칼라  핫로즈</t>
+  </si>
+  <si>
+    <t>L677</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 012 스카이핑크</t>
+  </si>
+  <si>
+    <t>레브론</t>
+  </si>
+  <si>
+    <t>드럭스토어</t>
+  </si>
+  <si>
+    <t>4.2g</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 스카이 핑크 12 12호</t>
+  </si>
+  <si>
+    <t>L678</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 013 스모크드 피치</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 스모크드피치 13 13호</t>
+  </si>
+  <si>
+    <t>L679</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 014 설트리 삼바</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 설트리삼바 14 14호</t>
+  </si>
+  <si>
+    <t>L680</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 030 핑크 펄</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 핑크펄 30 30호</t>
+  </si>
+  <si>
+    <t>L681</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 415 핑크 인 디 애프터눈</t>
+  </si>
+  <si>
+    <t>소프트/라이트</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 인디 인디애프터눈 인디애프터 눈 에프터 415호</t>
+  </si>
+  <si>
+    <t>L682</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 423 핑크 벨벳</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 핑크벨벳 423호</t>
+  </si>
+  <si>
+    <t>L683</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 435 러브 댓 핑크</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 러브댓핑크 러브댓 핑크 423호</t>
+  </si>
+  <si>
+    <t>L684</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 440 체리스 인 더 스노우</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼  체리스인더스노우 인더스노우 440호</t>
+  </si>
+  <si>
+    <t>L685</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 450 젠틀맨 프리퍼 핑크</t>
+  </si>
+  <si>
+    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼  450호 프리퍼핑크 젠틀맨프리퍼핑크</t>
+  </si>
+  <si>
+    <t>L686</t>
+  </si>
+  <si>
+    <t>수퍼 러스트러스 립스틱 463 쎄시 모브</t>
   </si>
   <si>
     <t>그레이시</t>
-  </si>
-  <si>
-    <t xml:space="preserve">럭스립컬러 럭스립 럭스립칼라 </t>
-  </si>
-  <si>
-    <t>L593</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 페일 코랄</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  페일코랄</t>
-  </si>
-  <si>
-    <t>L594</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 레트로 코랄</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  레트로코랄</t>
-  </si>
-  <si>
-    <t>L604</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 아토믹 오렌지</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  아토믹오렌지</t>
-  </si>
-  <si>
-    <t>L605</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 핑크 구아바</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  핑크구아바</t>
-  </si>
-  <si>
-    <t>L606</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 라즈베리 핑크</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  라즈베리핑크</t>
-  </si>
-  <si>
-    <t>L607</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 브라이트 피어니</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  브라이트피어니 피오니</t>
-  </si>
-  <si>
-    <t>L609</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 브로케이드</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  브로케이드 브로캐이드</t>
-  </si>
-  <si>
-    <t>L610</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 핑크 클라우드</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  핑크클라우드</t>
-  </si>
-  <si>
-    <t>L611</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 베이비 피치</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  베이비피치</t>
-  </si>
-  <si>
-    <t>L612</t>
-  </si>
-  <si>
-    <t>럭스 립 칼라 핫 로즈</t>
-  </si>
-  <si>
-    <t>럭스립컬러 럭스립 럭스립칼라  핫로즈</t>
-  </si>
-  <si>
-    <t>L677</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 012 스카이핑크</t>
-  </si>
-  <si>
-    <t>레브론</t>
-  </si>
-  <si>
-    <t>드럭스토어</t>
-  </si>
-  <si>
-    <t>4.2g</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 스카이 핑크 12 12호</t>
-  </si>
-  <si>
-    <t>L678</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 013 스모크드 피치</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 스모크드피치 13 13호</t>
-  </si>
-  <si>
-    <t>L679</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 014 설트리 삼바</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 설트리삼바 14 14호</t>
-  </si>
-  <si>
-    <t>L680</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 030 핑크 펄</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 핑크펄 30 30호</t>
-  </si>
-  <si>
-    <t>L681</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 415 핑크 인 디 애프터눈</t>
-  </si>
-  <si>
-    <t>소프트/라이트</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 인디 인디애프터눈 인디애프터 눈 에프터 415호</t>
-  </si>
-  <si>
-    <t>L682</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 423 핑크 벨벳</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 핑크벨벳 423호</t>
-  </si>
-  <si>
-    <t>L683</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 435 러브 댓 핑크</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 러브댓핑크 러브댓 핑크 423호</t>
-  </si>
-  <si>
-    <t>L684</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 440 체리스 인 더 스노우</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼  체리스인더스노우 인더스노우 440호</t>
-  </si>
-  <si>
-    <t>L685</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 450 젠틀맨 프리퍼 핑크</t>
-  </si>
-  <si>
-    <t>수퍼러스트러스 슈퍼러스트러스 슈퍼  450호 프리퍼핑크 젠틀맨프리퍼핑크</t>
-  </si>
-  <si>
-    <t>L686</t>
-  </si>
-  <si>
-    <t>수퍼 러스트러스 립스틱 463 쎄시 모브</t>
   </si>
   <si>
     <t>수퍼러스트러스 슈퍼러스트러스 슈퍼 463호 세시모브 세시 쎄씨모브 쎄씨 쎄시 모브</t>
@@ -21268,16 +21241,16 @@
         <v>269</v>
       </c>
       <c r="F304" s="40" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G304" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H304" s="40" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I304" s="40" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="J304" s="40">
         <v>41000.0</v>
@@ -21332,10 +21305,10 @@
         <v>20</v>
       </c>
       <c r="H305" s="40" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I305" s="40" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J305" s="40">
         <v>41000.0</v>
@@ -21384,16 +21357,16 @@
         <v>269</v>
       </c>
       <c r="F306" s="40" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G306" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H306" s="40" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I306" s="40" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J306" s="40">
         <v>41000.0</v>
@@ -21442,16 +21415,16 @@
         <v>269</v>
       </c>
       <c r="F307" s="40" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="G307" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H307" s="40" t="s">
-        <v>988</v>
+        <v>41</v>
       </c>
       <c r="I307" s="40" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="J307" s="40">
         <v>41000.0</v>
@@ -21469,7 +21442,7 @@
         <v>26</v>
       </c>
       <c r="O307" s="40" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="P307" s="42"/>
       <c r="Q307" s="42"/>
@@ -21488,10 +21461,10 @@
         <v>307.0</v>
       </c>
       <c r="B308" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="C308" s="40" t="s">
         <v>990</v>
-      </c>
-      <c r="C308" s="40" t="s">
-        <v>991</v>
       </c>
       <c r="D308" s="40" t="s">
         <v>965</v>
@@ -21500,13 +21473,13 @@
         <v>269</v>
       </c>
       <c r="F308" s="40" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G308" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H308" s="40" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I308" s="40" t="s">
         <v>22</v>
@@ -21527,7 +21500,7 @@
         <v>26</v>
       </c>
       <c r="O308" s="40" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P308" s="42"/>
       <c r="Q308" s="42"/>
@@ -21546,10 +21519,10 @@
         <v>308.0</v>
       </c>
       <c r="B309" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="C309" s="40" t="s">
         <v>993</v>
-      </c>
-      <c r="C309" s="40" t="s">
-        <v>994</v>
       </c>
       <c r="D309" s="40" t="s">
         <v>965</v>
@@ -21561,13 +21534,13 @@
         <v>19</v>
       </c>
       <c r="G309" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H309" s="40" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I309" s="40" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J309" s="40">
         <v>41000.0</v>
@@ -21585,7 +21558,7 @@
         <v>26</v>
       </c>
       <c r="O309" s="40" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="P309" s="42"/>
       <c r="Q309" s="42"/>
@@ -21604,10 +21577,10 @@
         <v>309.0</v>
       </c>
       <c r="B310" s="40" t="s">
+        <v>995</v>
+      </c>
+      <c r="C310" s="40" t="s">
         <v>996</v>
-      </c>
-      <c r="C310" s="40" t="s">
-        <v>997</v>
       </c>
       <c r="D310" s="40" t="s">
         <v>965</v>
@@ -21616,7 +21589,7 @@
         <v>269</v>
       </c>
       <c r="F310" s="40" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G310" s="40" t="s">
         <v>20</v>
@@ -21643,7 +21616,7 @@
         <v>26</v>
       </c>
       <c r="O310" s="40" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="P310" s="42"/>
       <c r="Q310" s="42"/>
@@ -21662,10 +21635,10 @@
         <v>310.0</v>
       </c>
       <c r="B311" s="40" t="s">
+        <v>998</v>
+      </c>
+      <c r="C311" s="40" t="s">
         <v>999</v>
-      </c>
-      <c r="C311" s="40" t="s">
-        <v>1000</v>
       </c>
       <c r="D311" s="40" t="s">
         <v>965</v>
@@ -21674,16 +21647,16 @@
         <v>269</v>
       </c>
       <c r="F311" s="40" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="G311" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H311" s="40" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I311" s="40" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J311" s="40">
         <v>41000.0</v>
@@ -21701,7 +21674,7 @@
         <v>26</v>
       </c>
       <c r="O311" s="40" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="P311" s="42"/>
       <c r="Q311" s="42"/>
@@ -21720,10 +21693,10 @@
         <v>311.0</v>
       </c>
       <c r="B312" s="40" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C312" s="40" t="s">
         <v>1002</v>
-      </c>
-      <c r="C312" s="40" t="s">
-        <v>1003</v>
       </c>
       <c r="D312" s="40" t="s">
         <v>965</v>
@@ -21735,13 +21708,13 @@
         <v>19</v>
       </c>
       <c r="G312" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H312" s="40" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="I312" s="40" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="J312" s="40">
         <v>41000.0</v>
@@ -21759,7 +21732,7 @@
         <v>26</v>
       </c>
       <c r="O312" s="40" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="P312" s="42"/>
       <c r="Q312" s="42"/>
@@ -21778,10 +21751,10 @@
         <v>312.0</v>
       </c>
       <c r="B313" s="40" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C313" s="40" t="s">
         <v>1005</v>
-      </c>
-      <c r="C313" s="40" t="s">
-        <v>1006</v>
       </c>
       <c r="D313" s="40" t="s">
         <v>965</v>
@@ -21790,13 +21763,13 @@
         <v>269</v>
       </c>
       <c r="F313" s="40" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G313" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H313" s="40" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I313" s="40" t="s">
         <v>22</v>
@@ -21817,7 +21790,7 @@
         <v>26</v>
       </c>
       <c r="O313" s="40" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="P313" s="42"/>
       <c r="Q313" s="42"/>
@@ -21836,10 +21809,10 @@
         <v>313.0</v>
       </c>
       <c r="B314" s="40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C314" s="40" t="s">
         <v>1008</v>
-      </c>
-      <c r="C314" s="40" t="s">
-        <v>1009</v>
       </c>
       <c r="D314" s="40" t="s">
         <v>965</v>
@@ -21848,13 +21821,13 @@
         <v>269</v>
       </c>
       <c r="F314" s="40" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="G314" s="40" t="s">
         <v>40</v>
       </c>
       <c r="H314" s="40" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I314" s="40" t="s">
         <v>42</v>
@@ -21875,7 +21848,7 @@
         <v>26</v>
       </c>
       <c r="O314" s="40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="P314" s="42"/>
       <c r="Q314" s="42"/>
@@ -21894,34 +21867,34 @@
         <v>314.0</v>
       </c>
       <c r="B315" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C315" s="40" t="s">
         <v>1011</v>
       </c>
-      <c r="C315" s="40" t="s">
+      <c r="D315" s="40" t="s">
         <v>1012</v>
       </c>
-      <c r="D315" s="40" t="s">
-        <v>965</v>
-      </c>
       <c r="E315" s="40" t="s">
-        <v>269</v>
+        <v>1013</v>
       </c>
       <c r="F315" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G315" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H315" s="40" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I315" s="40" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="J315" s="40">
-        <v>41000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K315" s="40" t="s">
-        <v>966</v>
+        <v>1014</v>
       </c>
       <c r="L315" s="40" t="s">
         <v>24</v>
@@ -21933,7 +21906,7 @@
         <v>26</v>
       </c>
       <c r="O315" s="40" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="P315" s="42"/>
       <c r="Q315" s="42"/>
@@ -21952,16 +21925,16 @@
         <v>315.0</v>
       </c>
       <c r="B316" s="40" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C316" s="40" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D316" s="40" t="s">
-        <v>965</v>
+        <v>1012</v>
       </c>
       <c r="E316" s="40" t="s">
-        <v>269</v>
+        <v>1013</v>
       </c>
       <c r="F316" s="40" t="s">
         <v>62</v>
@@ -21970,16 +21943,16 @@
         <v>20</v>
       </c>
       <c r="H316" s="40" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I316" s="40" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J316" s="40">
-        <v>41000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K316" s="40" t="s">
-        <v>966</v>
+        <v>1014</v>
       </c>
       <c r="L316" s="40" t="s">
         <v>24</v>
@@ -21991,7 +21964,7 @@
         <v>26</v>
       </c>
       <c r="O316" s="40" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="P316" s="42"/>
       <c r="Q316" s="42"/>
@@ -22010,16 +21983,16 @@
         <v>316.0</v>
       </c>
       <c r="B317" s="40" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C317" s="40" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D317" s="40" t="s">
-        <v>965</v>
+        <v>1012</v>
       </c>
       <c r="E317" s="40" t="s">
-        <v>269</v>
+        <v>1013</v>
       </c>
       <c r="F317" s="40" t="s">
         <v>19</v>
@@ -22028,16 +22001,16 @@
         <v>40</v>
       </c>
       <c r="H317" s="40" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I317" s="40" t="s">
         <v>42</v>
       </c>
       <c r="J317" s="40">
-        <v>41000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K317" s="40" t="s">
-        <v>966</v>
+        <v>1014</v>
       </c>
       <c r="L317" s="40" t="s">
         <v>24</v>
@@ -22049,7 +22022,7 @@
         <v>26</v>
       </c>
       <c r="O317" s="40" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="P317" s="42"/>
       <c r="Q317" s="42"/>
@@ -22068,34 +22041,34 @@
         <v>317.0</v>
       </c>
       <c r="B318" s="40" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C318" s="40" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D318" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E318" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F318" s="40" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="G318" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H318" s="40" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I318" s="40" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="J318" s="40">
         <v>14000.0</v>
       </c>
       <c r="K318" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L318" s="40" t="s">
         <v>24</v>
@@ -22107,7 +22080,7 @@
         <v>26</v>
       </c>
       <c r="O318" s="40" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="P318" s="42"/>
       <c r="Q318" s="42"/>
@@ -22126,25 +22099,25 @@
         <v>318.0</v>
       </c>
       <c r="B319" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C319" s="40" t="s">
         <v>1026</v>
       </c>
-      <c r="C319" s="40" t="s">
-        <v>1027</v>
-      </c>
       <c r="D319" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E319" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F319" s="40" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G319" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H319" s="40" t="s">
-        <v>98</v>
+        <v>1027</v>
       </c>
       <c r="I319" s="40" t="s">
         <v>77</v>
@@ -22153,7 +22126,7 @@
         <v>14000.0</v>
       </c>
       <c r="K319" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L319" s="40" t="s">
         <v>24</v>
@@ -22190,10 +22163,10 @@
         <v>1030</v>
       </c>
       <c r="D320" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E320" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F320" s="40" t="s">
         <v>19</v>
@@ -22202,16 +22175,16 @@
         <v>40</v>
       </c>
       <c r="H320" s="40" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I320" s="40" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="J320" s="40">
         <v>14000.0</v>
       </c>
       <c r="K320" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L320" s="40" t="s">
         <v>24</v>
@@ -22248,28 +22221,28 @@
         <v>1033</v>
       </c>
       <c r="D321" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E321" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F321" s="40" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="G321" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H321" s="40" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I321" s="40" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="J321" s="40">
         <v>14000.0</v>
       </c>
       <c r="K321" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L321" s="40" t="s">
         <v>24</v>
@@ -22306,28 +22279,28 @@
         <v>1036</v>
       </c>
       <c r="D322" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E322" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F322" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G322" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H322" s="40" t="s">
-        <v>1037</v>
+        <v>41</v>
       </c>
       <c r="I322" s="40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J322" s="40">
         <v>14000.0</v>
       </c>
       <c r="K322" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L322" s="40" t="s">
         <v>24</v>
@@ -22339,7 +22312,7 @@
         <v>26</v>
       </c>
       <c r="O322" s="40" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="P322" s="42"/>
       <c r="Q322" s="42"/>
@@ -22358,16 +22331,16 @@
         <v>322.0</v>
       </c>
       <c r="B323" s="40" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C323" s="40" t="s">
         <v>1039</v>
       </c>
-      <c r="C323" s="40" t="s">
-        <v>1040</v>
-      </c>
       <c r="D323" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E323" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F323" s="40" t="s">
         <v>19</v>
@@ -22376,16 +22349,16 @@
         <v>40</v>
       </c>
       <c r="H323" s="40" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I323" s="40" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="J323" s="40">
         <v>14000.0</v>
       </c>
       <c r="K323" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L323" s="40" t="s">
         <v>24</v>
@@ -22397,7 +22370,7 @@
         <v>26</v>
       </c>
       <c r="O323" s="40" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="P323" s="42"/>
       <c r="Q323" s="42"/>
@@ -22416,34 +22389,34 @@
         <v>323.0</v>
       </c>
       <c r="B324" s="40" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C324" s="40" t="s">
         <v>1042</v>
       </c>
-      <c r="C324" s="40" t="s">
+      <c r="D324" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E324" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F324" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G324" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H324" s="40" t="s">
         <v>1043</v>
       </c>
-      <c r="D324" s="40" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E324" s="40" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F324" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G324" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H324" s="40" t="s">
-        <v>41</v>
-      </c>
       <c r="I324" s="40" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="J324" s="40">
         <v>14000.0</v>
       </c>
       <c r="K324" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L324" s="40" t="s">
         <v>24</v>
@@ -22454,7 +22427,7 @@
       <c r="N324" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O324" s="40" t="s">
+      <c r="O324" s="43" t="s">
         <v>1044</v>
       </c>
       <c r="P324" s="42"/>
@@ -22476,32 +22449,32 @@
       <c r="B325" s="40" t="s">
         <v>1045</v>
       </c>
-      <c r="C325" s="40" t="s">
+      <c r="C325" s="43" t="s">
         <v>1046</v>
       </c>
       <c r="D325" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E325" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F325" s="40" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G325" s="40" t="s">
         <v>40</v>
       </c>
       <c r="H325" s="40" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="I325" s="40" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="J325" s="40">
         <v>14000.0</v>
       </c>
       <c r="K325" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L325" s="40" t="s">
         <v>24</v>
@@ -22512,7 +22485,7 @@
       <c r="N325" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O325" s="40" t="s">
+      <c r="O325" s="43" t="s">
         <v>1047</v>
       </c>
       <c r="P325" s="42"/>
@@ -22538,10 +22511,10 @@
         <v>1049</v>
       </c>
       <c r="D326" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E326" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F326" s="40" t="s">
         <v>19</v>
@@ -22550,16 +22523,16 @@
         <v>40</v>
       </c>
       <c r="H326" s="40" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I326" s="40" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="J326" s="40">
         <v>14000.0</v>
       </c>
       <c r="K326" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L326" s="40" t="s">
         <v>24</v>
@@ -22570,7 +22543,7 @@
       <c r="N326" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O326" s="40" t="s">
+      <c r="O326" s="43" t="s">
         <v>1050</v>
       </c>
       <c r="P326" s="42"/>
@@ -22596,28 +22569,28 @@
         <v>1052</v>
       </c>
       <c r="D327" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E327" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F327" s="40" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G327" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H327" s="40" t="s">
-        <v>988</v>
+        <v>21</v>
       </c>
       <c r="I327" s="40" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="J327" s="40">
         <v>14000.0</v>
       </c>
       <c r="K327" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L327" s="40" t="s">
         <v>24</v>
@@ -22650,32 +22623,32 @@
       <c r="B328" s="40" t="s">
         <v>1054</v>
       </c>
-      <c r="C328" s="43" t="s">
+      <c r="C328" s="40" t="s">
         <v>1055</v>
       </c>
       <c r="D328" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E328" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F328" s="40" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="G328" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H328" s="40" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="I328" s="40" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J328" s="40">
         <v>14000.0</v>
       </c>
       <c r="K328" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L328" s="40" t="s">
         <v>24</v>
@@ -22712,28 +22685,28 @@
         <v>1058</v>
       </c>
       <c r="D329" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E329" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F329" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G329" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H329" s="40" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I329" s="40" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="J329" s="40">
         <v>14000.0</v>
       </c>
       <c r="K329" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L329" s="40" t="s">
         <v>24</v>
@@ -22770,10 +22743,10 @@
         <v>1061</v>
       </c>
       <c r="D330" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E330" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F330" s="40" t="s">
         <v>62</v>
@@ -22782,7 +22755,7 @@
         <v>20</v>
       </c>
       <c r="H330" s="40" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I330" s="40" t="s">
         <v>22</v>
@@ -22791,7 +22764,7 @@
         <v>14000.0</v>
       </c>
       <c r="K330" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L330" s="40" t="s">
         <v>24</v>
@@ -22824,32 +22797,32 @@
       <c r="B331" s="40" t="s">
         <v>1063</v>
       </c>
-      <c r="C331" s="40" t="s">
+      <c r="C331" s="43" t="s">
         <v>1064</v>
       </c>
       <c r="D331" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E331" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F331" s="40" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="G331" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H331" s="40" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I331" s="40" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="J331" s="40">
         <v>14000.0</v>
       </c>
       <c r="K331" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L331" s="40" t="s">
         <v>24</v>
@@ -22886,19 +22859,19 @@
         <v>1067</v>
       </c>
       <c r="D332" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E332" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F332" s="40" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G332" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H332" s="40" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I332" s="40" t="s">
         <v>22</v>
@@ -22907,7 +22880,7 @@
         <v>14000.0</v>
       </c>
       <c r="K332" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L332" s="40" t="s">
         <v>24</v>
@@ -22944,28 +22917,28 @@
         <v>1070</v>
       </c>
       <c r="D333" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E333" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F333" s="40" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G333" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H333" s="40" t="s">
         <v>41</v>
       </c>
       <c r="I333" s="40" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J333" s="40">
         <v>14000.0</v>
       </c>
       <c r="K333" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L333" s="40" t="s">
         <v>24</v>
@@ -22998,32 +22971,32 @@
       <c r="B334" s="40" t="s">
         <v>1072</v>
       </c>
-      <c r="C334" s="43" t="s">
+      <c r="C334" s="40" t="s">
         <v>1073</v>
       </c>
       <c r="D334" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E334" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F334" s="40" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G334" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H334" s="40" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="I334" s="40" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="J334" s="40">
         <v>14000.0</v>
       </c>
       <c r="K334" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L334" s="40" t="s">
         <v>24</v>
@@ -23060,28 +23033,28 @@
         <v>1076</v>
       </c>
       <c r="D335" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E335" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F335" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G335" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H335" s="40" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I335" s="40" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="J335" s="40">
         <v>14000.0</v>
       </c>
       <c r="K335" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L335" s="40" t="s">
         <v>24</v>
@@ -23118,28 +23091,28 @@
         <v>1079</v>
       </c>
       <c r="D336" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E336" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F336" s="40" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G336" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H336" s="40" t="s">
         <v>41</v>
       </c>
       <c r="I336" s="40" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J336" s="40">
         <v>14000.0</v>
       </c>
       <c r="K336" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L336" s="40" t="s">
         <v>24</v>
@@ -23176,28 +23149,28 @@
         <v>1082</v>
       </c>
       <c r="D337" s="40" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E337" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F337" s="40" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G337" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H337" s="40" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="I337" s="40" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="J337" s="40">
         <v>14000.0</v>
       </c>
       <c r="K337" s="40" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="L337" s="40" t="s">
         <v>24</v>
@@ -23234,28 +23207,28 @@
         <v>1085</v>
       </c>
       <c r="D338" s="40" t="s">
-        <v>1022</v>
+        <v>462</v>
       </c>
       <c r="E338" s="40" t="s">
-        <v>1023</v>
+        <v>269</v>
       </c>
       <c r="F338" s="40" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G338" s="40" t="s">
         <v>40</v>
       </c>
       <c r="H338" s="40" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I338" s="40" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="J338" s="40">
-        <v>14000.0</v>
+        <v>34000.0</v>
       </c>
       <c r="K338" s="40" t="s">
-        <v>1024</v>
+        <v>1086</v>
       </c>
       <c r="L338" s="40" t="s">
         <v>24</v>
@@ -23266,8 +23239,8 @@
       <c r="N338" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O338" s="43" t="s">
-        <v>1086</v>
+      <c r="O338" s="40" t="s">
+        <v>1087</v>
       </c>
       <c r="P338" s="42"/>
       <c r="Q338" s="42"/>
@@ -23286,34 +23259,34 @@
         <v>338.0</v>
       </c>
       <c r="B339" s="40" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C339" s="40" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D339" s="40" t="s">
-        <v>1022</v>
+        <v>462</v>
       </c>
       <c r="E339" s="40" t="s">
-        <v>1023</v>
+        <v>269</v>
       </c>
       <c r="F339" s="40" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="G339" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H339" s="40" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I339" s="40" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J339" s="40">
-        <v>14000.0</v>
+        <v>34000.0</v>
       </c>
       <c r="K339" s="40" t="s">
-        <v>1024</v>
+        <v>1086</v>
       </c>
       <c r="L339" s="40" t="s">
         <v>24</v>
@@ -23324,8 +23297,8 @@
       <c r="N339" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O339" s="43" t="s">
-        <v>1089</v>
+      <c r="O339" s="40" t="s">
+        <v>1090</v>
       </c>
       <c r="P339" s="42"/>
       <c r="Q339" s="42"/>
@@ -23344,34 +23317,34 @@
         <v>339.0</v>
       </c>
       <c r="B340" s="40" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C340" s="40" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D340" s="40" t="s">
-        <v>1022</v>
+        <v>280</v>
       </c>
       <c r="E340" s="40" t="s">
-        <v>1023</v>
+        <v>269</v>
       </c>
       <c r="F340" s="40" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G340" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H340" s="40" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I340" s="40" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="J340" s="40">
-        <v>14000.0</v>
+        <v>41000.0</v>
       </c>
       <c r="K340" s="40" t="s">
-        <v>1024</v>
+        <v>231</v>
       </c>
       <c r="L340" s="40" t="s">
         <v>24</v>
@@ -23382,8 +23355,8 @@
       <c r="N340" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O340" s="43" t="s">
-        <v>1092</v>
+      <c r="O340" s="40" t="s">
+        <v>1093</v>
       </c>
       <c r="P340" s="42"/>
       <c r="Q340" s="42"/>
@@ -23402,34 +23375,34 @@
         <v>340.0</v>
       </c>
       <c r="B341" s="40" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C341" s="40" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D341" s="40" t="s">
-        <v>462</v>
+        <v>280</v>
       </c>
       <c r="E341" s="40" t="s">
         <v>269</v>
       </c>
       <c r="F341" s="40" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G341" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H341" s="40" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="I341" s="40" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="J341" s="40">
-        <v>34000.0</v>
+        <v>41000.0</v>
       </c>
       <c r="K341" s="40" t="s">
-        <v>1095</v>
+        <v>231</v>
       </c>
       <c r="L341" s="40" t="s">
         <v>24</v>
@@ -23440,7 +23413,7 @@
       <c r="N341" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O341" s="40" t="s">
+      <c r="O341" s="44" t="s">
         <v>1096</v>
       </c>
       <c r="P341" s="42"/>
@@ -23462,32 +23435,32 @@
       <c r="B342" s="40" t="s">
         <v>1097</v>
       </c>
-      <c r="C342" s="40" t="s">
+      <c r="C342" s="43" t="s">
         <v>1098</v>
       </c>
       <c r="D342" s="40" t="s">
-        <v>462</v>
+        <v>280</v>
       </c>
       <c r="E342" s="40" t="s">
         <v>269</v>
       </c>
       <c r="F342" s="40" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="G342" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H342" s="40" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="I342" s="40" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="J342" s="40">
-        <v>34000.0</v>
+        <v>41000.0</v>
       </c>
       <c r="K342" s="40" t="s">
-        <v>1095</v>
+        <v>231</v>
       </c>
       <c r="L342" s="40" t="s">
         <v>24</v>
@@ -23498,7 +23471,7 @@
       <c r="N342" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O342" s="40" t="s">
+      <c r="O342" s="44" t="s">
         <v>1099</v>
       </c>
       <c r="P342" s="42"/>
@@ -23530,16 +23503,16 @@
         <v>269</v>
       </c>
       <c r="F343" s="40" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="G343" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H343" s="40" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I343" s="40" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="J343" s="40">
         <v>41000.0</v>
@@ -23556,7 +23529,7 @@
       <c r="N343" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O343" s="40" t="s">
+      <c r="O343" s="44" t="s">
         <v>1102</v>
       </c>
       <c r="P343" s="42"/>
@@ -23588,16 +23561,16 @@
         <v>269</v>
       </c>
       <c r="F344" s="40" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G344" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H344" s="40" t="s">
         <v>177</v>
       </c>
       <c r="I344" s="40" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J344" s="40">
         <v>41000.0</v>
@@ -23636,7 +23609,7 @@
       <c r="B345" s="40" t="s">
         <v>1106</v>
       </c>
-      <c r="C345" s="43" t="s">
+      <c r="C345" s="40" t="s">
         <v>1107</v>
       </c>
       <c r="D345" s="40" t="s">
@@ -23646,16 +23619,16 @@
         <v>269</v>
       </c>
       <c r="F345" s="40" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G345" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H345" s="40" t="s">
         <v>239</v>
       </c>
       <c r="I345" s="40" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J345" s="40">
         <v>41000.0</v>
@@ -23704,16 +23677,16 @@
         <v>269</v>
       </c>
       <c r="F346" s="40" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="G346" s="40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H346" s="40" t="s">
         <v>239</v>
       </c>
       <c r="I346" s="40" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J346" s="40">
         <v>41000.0</v>
@@ -23730,7 +23703,7 @@
       <c r="N346" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O346" s="44" t="s">
+      <c r="O346" s="40" t="s">
         <v>1111</v>
       </c>
       <c r="P346" s="42"/>
@@ -23762,7 +23735,7 @@
         <v>269</v>
       </c>
       <c r="F347" s="40" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G347" s="40" t="s">
         <v>40</v>
@@ -23788,7 +23761,7 @@
       <c r="N347" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O347" s="44" t="s">
+      <c r="O347" s="40" t="s">
         <v>1114</v>
       </c>
       <c r="P347" s="42"/>
@@ -23820,16 +23793,16 @@
         <v>269</v>
       </c>
       <c r="F348" s="40" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G348" s="40" t="s">
         <v>40</v>
       </c>
       <c r="H348" s="40" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="I348" s="40" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="J348" s="40">
         <v>41000.0</v>
@@ -23846,7 +23819,7 @@
       <c r="N348" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O348" s="44" t="s">
+      <c r="O348" s="40" t="s">
         <v>1117</v>
       </c>
       <c r="P348" s="42"/>
@@ -23881,13 +23854,13 @@
         <v>19</v>
       </c>
       <c r="G349" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H349" s="40" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="I349" s="40" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J349" s="40">
         <v>41000.0</v>
@@ -24046,28 +24019,28 @@
         <v>1128</v>
       </c>
       <c r="D352" s="40" t="s">
-        <v>280</v>
+        <v>1129</v>
       </c>
       <c r="E352" s="40" t="s">
-        <v>269</v>
+        <v>1013</v>
       </c>
       <c r="F352" s="40" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G352" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H352" s="40" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="I352" s="40" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="J352" s="40">
-        <v>41000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="K352" s="40" t="s">
-        <v>231</v>
+        <v>1086</v>
       </c>
       <c r="L352" s="40" t="s">
         <v>24</v>
@@ -24076,10 +24049,10 @@
         <v>35</v>
       </c>
       <c r="N352" s="40" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O352" s="40" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="P352" s="42"/>
       <c r="Q352" s="42"/>
@@ -24098,34 +24071,34 @@
         <v>352.0</v>
       </c>
       <c r="B353" s="40" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C353" s="40" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D353" s="40" t="s">
-        <v>280</v>
+        <v>1129</v>
       </c>
       <c r="E353" s="40" t="s">
-        <v>269</v>
+        <v>1013</v>
       </c>
       <c r="F353" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G353" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H353" s="40" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="I353" s="40" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="J353" s="40">
-        <v>41000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="K353" s="40" t="s">
-        <v>231</v>
+        <v>1086</v>
       </c>
       <c r="L353" s="40" t="s">
         <v>24</v>
@@ -24134,10 +24107,10 @@
         <v>35</v>
       </c>
       <c r="N353" s="40" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O353" s="40" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="P353" s="42"/>
       <c r="Q353" s="42"/>
@@ -24156,34 +24129,34 @@
         <v>353.0</v>
       </c>
       <c r="B354" s="40" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C354" s="40" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>280</v>
+        <v>1129</v>
       </c>
       <c r="E354" s="40" t="s">
-        <v>269</v>
+        <v>1013</v>
       </c>
       <c r="F354" s="40" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G354" s="40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H354" s="40" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I354" s="40" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J354" s="40">
-        <v>41000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="K354" s="40" t="s">
-        <v>231</v>
+        <v>1086</v>
       </c>
       <c r="L354" s="40" t="s">
         <v>24</v>
@@ -24192,10 +24165,10 @@
         <v>35</v>
       </c>
       <c r="N354" s="40" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O354" s="40" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="P354" s="42"/>
       <c r="Q354" s="42"/>
@@ -24214,34 +24187,34 @@
         <v>354.0</v>
       </c>
       <c r="B355" s="40" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C355" s="40" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D355" s="40" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E355" s="40" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F355" s="40" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G355" s="40" t="s">
         <v>20</v>
       </c>
       <c r="H355" s="40" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I355" s="40" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="J355" s="40">
         <v>15000.0</v>
       </c>
       <c r="K355" s="40" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="L355" s="40" t="s">
         <v>24</v>
@@ -24268,178 +24241,88 @@
       <c r="Z355" s="42"/>
     </row>
     <row r="356">
-      <c r="A356" s="7">
-        <v>355.0</v>
-      </c>
-      <c r="B356" s="40" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C356" s="40" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D356" s="40" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E356" s="40" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F356" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G356" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H356" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="I356" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J356" s="40">
-        <v>15000.0</v>
-      </c>
-      <c r="K356" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L356" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M356" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N356" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O356" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="P356" s="42"/>
-      <c r="Q356" s="42"/>
-      <c r="R356" s="42"/>
-      <c r="S356" s="42"/>
-      <c r="T356" s="42"/>
-      <c r="U356" s="42"/>
-      <c r="V356" s="42"/>
-      <c r="W356" s="42"/>
-      <c r="X356" s="42"/>
-      <c r="Y356" s="42"/>
-      <c r="Z356" s="42"/>
+      <c r="A356" s="45"/>
+      <c r="B356" s="46"/>
+      <c r="C356" s="46"/>
+      <c r="D356" s="46"/>
+      <c r="E356" s="46"/>
+      <c r="F356" s="46"/>
+      <c r="G356" s="46"/>
+      <c r="H356" s="46"/>
+      <c r="I356" s="46"/>
+      <c r="J356" s="46"/>
+      <c r="K356" s="46"/>
+      <c r="L356" s="46"/>
+      <c r="M356" s="46"/>
+      <c r="N356" s="46"/>
+      <c r="O356" s="46"/>
+      <c r="P356" s="46"/>
+      <c r="Q356" s="46"/>
+      <c r="R356" s="46"/>
+      <c r="S356" s="46"/>
+      <c r="T356" s="46"/>
+      <c r="U356" s="46"/>
+      <c r="V356" s="46"/>
+      <c r="W356" s="46"/>
+      <c r="X356" s="46"/>
+      <c r="Y356" s="46"/>
+      <c r="Z356" s="46"/>
     </row>
     <row r="357">
-      <c r="A357" s="7">
-        <v>356.0</v>
-      </c>
-      <c r="B357" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C357" s="40" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D357" s="40" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E357" s="40" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F357" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G357" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H357" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I357" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J357" s="40">
-        <v>15000.0</v>
-      </c>
-      <c r="K357" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L357" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M357" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N357" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O357" s="40" t="s">
-        <v>1145</v>
-      </c>
-      <c r="P357" s="42"/>
-      <c r="Q357" s="42"/>
-      <c r="R357" s="42"/>
-      <c r="S357" s="42"/>
-      <c r="T357" s="42"/>
-      <c r="U357" s="42"/>
-      <c r="V357" s="42"/>
-      <c r="W357" s="42"/>
-      <c r="X357" s="42"/>
-      <c r="Y357" s="42"/>
-      <c r="Z357" s="42"/>
+      <c r="A357" s="45"/>
+      <c r="B357" s="46"/>
+      <c r="C357" s="46"/>
+      <c r="D357" s="46"/>
+      <c r="E357" s="46"/>
+      <c r="F357" s="46"/>
+      <c r="G357" s="46"/>
+      <c r="H357" s="46"/>
+      <c r="I357" s="46"/>
+      <c r="J357" s="46"/>
+      <c r="K357" s="46"/>
+      <c r="L357" s="46"/>
+      <c r="M357" s="46"/>
+      <c r="N357" s="46"/>
+      <c r="O357" s="46"/>
+      <c r="P357" s="46"/>
+      <c r="Q357" s="46"/>
+      <c r="R357" s="46"/>
+      <c r="S357" s="46"/>
+      <c r="T357" s="46"/>
+      <c r="U357" s="46"/>
+      <c r="V357" s="46"/>
+      <c r="W357" s="46"/>
+      <c r="X357" s="46"/>
+      <c r="Y357" s="46"/>
+      <c r="Z357" s="46"/>
     </row>
     <row r="358">
-      <c r="A358" s="7">
-        <v>357.0</v>
-      </c>
-      <c r="B358" s="40" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C358" s="40" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D358" s="40" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E358" s="40" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F358" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G358" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H358" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I358" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="J358" s="40">
-        <v>15000.0</v>
-      </c>
-      <c r="K358" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L358" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M358" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N358" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O358" s="40" t="s">
-        <v>1148</v>
-      </c>
-      <c r="P358" s="42"/>
-      <c r="Q358" s="42"/>
-      <c r="R358" s="42"/>
-      <c r="S358" s="42"/>
-      <c r="T358" s="42"/>
-      <c r="U358" s="42"/>
-      <c r="V358" s="42"/>
-      <c r="W358" s="42"/>
-      <c r="X358" s="42"/>
-      <c r="Y358" s="42"/>
-      <c r="Z358" s="42"/>
+      <c r="A358" s="45"/>
+      <c r="B358" s="46"/>
+      <c r="C358" s="46"/>
+      <c r="D358" s="46"/>
+      <c r="E358" s="46"/>
+      <c r="F358" s="46"/>
+      <c r="G358" s="46"/>
+      <c r="H358" s="46"/>
+      <c r="I358" s="46"/>
+      <c r="J358" s="46"/>
+      <c r="K358" s="46"/>
+      <c r="L358" s="46"/>
+      <c r="M358" s="46"/>
+      <c r="N358" s="46"/>
+      <c r="O358" s="46"/>
+      <c r="P358" s="46"/>
+      <c r="Q358" s="46"/>
+      <c r="R358" s="46"/>
+      <c r="S358" s="46"/>
+      <c r="T358" s="46"/>
+      <c r="U358" s="46"/>
+      <c r="V358" s="46"/>
+      <c r="W358" s="46"/>
+      <c r="X358" s="46"/>
+      <c r="Y358" s="46"/>
+      <c r="Z358" s="46"/>
     </row>
     <row r="359">
       <c r="A359" s="45"/>
@@ -38441,90 +38324,6 @@
       <c r="Y858" s="46"/>
       <c r="Z858" s="46"/>
     </row>
-    <row r="859">
-      <c r="A859" s="45"/>
-      <c r="B859" s="46"/>
-      <c r="C859" s="46"/>
-      <c r="D859" s="46"/>
-      <c r="E859" s="46"/>
-      <c r="F859" s="46"/>
-      <c r="G859" s="46"/>
-      <c r="H859" s="46"/>
-      <c r="I859" s="46"/>
-      <c r="J859" s="46"/>
-      <c r="K859" s="46"/>
-      <c r="L859" s="46"/>
-      <c r="M859" s="46"/>
-      <c r="N859" s="46"/>
-      <c r="O859" s="46"/>
-      <c r="P859" s="46"/>
-      <c r="Q859" s="46"/>
-      <c r="R859" s="46"/>
-      <c r="S859" s="46"/>
-      <c r="T859" s="46"/>
-      <c r="U859" s="46"/>
-      <c r="V859" s="46"/>
-      <c r="W859" s="46"/>
-      <c r="X859" s="46"/>
-      <c r="Y859" s="46"/>
-      <c r="Z859" s="46"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="45"/>
-      <c r="B860" s="46"/>
-      <c r="C860" s="46"/>
-      <c r="D860" s="46"/>
-      <c r="E860" s="46"/>
-      <c r="F860" s="46"/>
-      <c r="G860" s="46"/>
-      <c r="H860" s="46"/>
-      <c r="I860" s="46"/>
-      <c r="J860" s="46"/>
-      <c r="K860" s="46"/>
-      <c r="L860" s="46"/>
-      <c r="M860" s="46"/>
-      <c r="N860" s="46"/>
-      <c r="O860" s="46"/>
-      <c r="P860" s="46"/>
-      <c r="Q860" s="46"/>
-      <c r="R860" s="46"/>
-      <c r="S860" s="46"/>
-      <c r="T860" s="46"/>
-      <c r="U860" s="46"/>
-      <c r="V860" s="46"/>
-      <c r="W860" s="46"/>
-      <c r="X860" s="46"/>
-      <c r="Y860" s="46"/>
-      <c r="Z860" s="46"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="45"/>
-      <c r="B861" s="46"/>
-      <c r="C861" s="46"/>
-      <c r="D861" s="46"/>
-      <c r="E861" s="46"/>
-      <c r="F861" s="46"/>
-      <c r="G861" s="46"/>
-      <c r="H861" s="46"/>
-      <c r="I861" s="46"/>
-      <c r="J861" s="46"/>
-      <c r="K861" s="46"/>
-      <c r="L861" s="46"/>
-      <c r="M861" s="46"/>
-      <c r="N861" s="46"/>
-      <c r="O861" s="46"/>
-      <c r="P861" s="46"/>
-      <c r="Q861" s="46"/>
-      <c r="R861" s="46"/>
-      <c r="S861" s="46"/>
-      <c r="T861" s="46"/>
-      <c r="U861" s="46"/>
-      <c r="V861" s="46"/>
-      <c r="W861" s="46"/>
-      <c r="X861" s="46"/>
-      <c r="Y861" s="46"/>
-      <c r="Z861" s="46"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
